--- a/medicine/Enfance/Affaire_Nathaniel_Craver/Affaire_Nathaniel_Craver.xlsx
+++ b/medicine/Enfance/Affaire_Nathaniel_Craver/Affaire_Nathaniel_Craver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'affaire Nathaniel Craver concerne la mort d'un enfant russe adopté par des américains, qui a choqué l'opinion publique russe[1]. 
-Nathaniel Craver, né Ivan Skorobogatov (en russe : Иван Скоробогатов)[2] le 4 février 2002 à Troïtsk (oblast de Tcheliabinsk), a été abandonné avec sa sœur jumelle par ses parents, qui n'ont pas été identifiés. Il est adopté par Nanette et Michael Craver. Il meurt le 5 août 2009.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'affaire Nathaniel Craver concerne la mort d'un enfant russe adopté par des américains, qui a choqué l'opinion publique russe. 
+Nathaniel Craver, né Ivan Skorobogatov (en russe : Иван Скоробогатов) le 4 février 2002 à Troïtsk (oblast de Tcheliabinsk), a été abandonné avec sa sœur jumelle par ses parents, qui n'ont pas été identifiés. Il est adopté par Nanette et Michael Craver. Il meurt le 5 août 2009.
 En 2010, le couple Craver est accusé d'avoir maltraité leur enfant et d'avoir causé sa mort. Inculpés pour meurtre, ils sont finalement condamnés pour homicide involontaire à 16 mois de prison[réf. souhaitée].
 </t>
         </is>
